--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,12 +92,6 @@
   </si>
   <si>
     <t>Epha4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H2">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I2">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J2">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="O2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q2">
-        <v>158.001457409292</v>
+        <v>68.54224674350722</v>
       </c>
       <c r="R2">
-        <v>1422.013116683628</v>
+        <v>616.880220691565</v>
       </c>
       <c r="S2">
-        <v>0.3908105015858083</v>
+        <v>0.3291140775536829</v>
       </c>
       <c r="T2">
-        <v>0.4196473886049349</v>
+        <v>0.3409086772652859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H3">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I3">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J3">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
         <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q3">
-        <v>128.6714556694467</v>
+        <v>88.26467587643609</v>
       </c>
       <c r="R3">
-        <v>1158.04310102502</v>
+        <v>794.3820828879249</v>
       </c>
       <c r="S3">
-        <v>0.3182638752482498</v>
+        <v>0.4238137610276074</v>
       </c>
       <c r="T3">
-        <v>0.3417477360338794</v>
+        <v>0.4390021531521414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H4">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I4">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J4">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +685,22 @@
         <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q4">
-        <v>0.434054265456</v>
+        <v>0.29774792594</v>
       </c>
       <c r="R4">
-        <v>3.906488389104</v>
+        <v>2.67973133346</v>
       </c>
       <c r="S4">
-        <v>0.001073616458858961</v>
+        <v>0.00142967350276635</v>
       </c>
       <c r="T4">
-        <v>0.001152835815555784</v>
+        <v>0.001480909313791978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H5">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I5">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J5">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +741,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="N5">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="O5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P5">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q5">
-        <v>64.433360055148</v>
+        <v>10.82295757270833</v>
       </c>
       <c r="R5">
-        <v>386.600160330888</v>
+        <v>64.93774543625</v>
       </c>
       <c r="S5">
-        <v>0.1593734271499858</v>
+        <v>0.05196776976503129</v>
       </c>
       <c r="T5">
-        <v>0.1140887842831346</v>
+        <v>0.03588677373452468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.447252</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H6">
-        <v>61.341756</v>
+        <v>7.449742</v>
       </c>
       <c r="I6">
-        <v>0.8699145605694745</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J6">
-        <v>0.8770588936480435</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007773333333333333</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N6">
-        <v>0.02332</v>
+        <v>14.660201</v>
       </c>
       <c r="O6">
-        <v>0.0004519295852621654</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P6">
-        <v>0.0004813233336965963</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q6">
-        <v>0.1589433055466667</v>
+        <v>12.13496834646022</v>
       </c>
       <c r="R6">
-        <v>1.43048974992</v>
+        <v>109.214715118142</v>
       </c>
       <c r="S6">
-        <v>0.0003931401265716815</v>
+        <v>0.05826755181273242</v>
       </c>
       <c r="T6">
-        <v>0.0004221489105389248</v>
+        <v>0.06035571059012221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>7.449742</v>
       </c>
       <c r="I7">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J7">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.727270999999999</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N7">
-        <v>23.181813</v>
+        <v>18.878545</v>
       </c>
       <c r="O7">
-        <v>0.4492515923977304</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P7">
-        <v>0.4784711627054499</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q7">
-        <v>19.188725104694</v>
+        <v>15.62669884282111</v>
       </c>
       <c r="R7">
-        <v>172.698525942246</v>
+        <v>140.64028958539</v>
       </c>
       <c r="S7">
-        <v>0.04746257032004208</v>
+        <v>0.07503352777608577</v>
       </c>
       <c r="T7">
-        <v>0.05096470952152894</v>
+        <v>0.07772253589037413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>7.449742</v>
       </c>
       <c r="I8">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J8">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.292848333333334</v>
+        <v>0.021228</v>
       </c>
       <c r="N8">
-        <v>18.878545</v>
+        <v>0.063684</v>
       </c>
       <c r="O8">
-        <v>0.3658564756519352</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P8">
-        <v>0.3896519817642028</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q8">
-        <v>15.62669884282111</v>
+        <v>0.052714374392</v>
       </c>
       <c r="R8">
-        <v>140.64028958539</v>
+        <v>0.474429369528</v>
       </c>
       <c r="S8">
-        <v>0.03865203595605655</v>
+        <v>0.0002531145902871353</v>
       </c>
       <c r="T8">
-        <v>0.04150406881955751</v>
+        <v>0.0002621855643876467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,164 +977,164 @@
         <v>7.449742</v>
       </c>
       <c r="I9">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J9">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.021228</v>
+        <v>0.771625</v>
       </c>
       <c r="N9">
-        <v>0.063684</v>
+        <v>1.54325</v>
       </c>
       <c r="O9">
-        <v>0.001234163109255392</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P9">
-        <v>0.001314433755709007</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q9">
-        <v>0.052714374392</v>
+        <v>1.916135723583333</v>
       </c>
       <c r="R9">
-        <v>0.474429369528</v>
+        <v>11.4968143415</v>
       </c>
       <c r="S9">
-        <v>0.0001303869687958211</v>
+        <v>0.009200562734610455</v>
       </c>
       <c r="T9">
-        <v>0.0001400078829541524</v>
+        <v>0.006353524782382321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.483247333333333</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H10">
-        <v>7.449742</v>
+        <v>0.559102</v>
       </c>
       <c r="I10">
-        <v>0.105648084777455</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J10">
-        <v>0.1065157390747562</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.151199</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N10">
-        <v>6.302398</v>
+        <v>14.660201</v>
       </c>
       <c r="O10">
-        <v>0.183205839255817</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P10">
-        <v>0.1300810984409417</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q10">
-        <v>7.825206513552667</v>
+        <v>0.910727522166889</v>
       </c>
       <c r="R10">
-        <v>46.951239081316</v>
+        <v>8.196547699502</v>
       </c>
       <c r="S10">
-        <v>0.01935534603742334</v>
+        <v>0.0043729708698103</v>
       </c>
       <c r="T10">
-        <v>0.01385568434009303</v>
+        <v>0.00452968686732487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.483247333333333</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H11">
-        <v>7.449742</v>
+        <v>0.559102</v>
       </c>
       <c r="I11">
-        <v>0.105648084777455</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J11">
-        <v>0.1065157390747562</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.007773333333333333</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N11">
-        <v>0.02332</v>
+        <v>18.878545</v>
       </c>
       <c r="O11">
-        <v>0.0004519295852621654</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P11">
-        <v>0.0004813233336965963</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q11">
-        <v>0.01930310927111111</v>
+        <v>1.172781362954444</v>
       </c>
       <c r="R11">
-        <v>0.17372798344</v>
+        <v>10.55503226659</v>
       </c>
       <c r="S11">
-        <v>4.774549513721733E-05</v>
+        <v>0.005631254806765806</v>
       </c>
       <c r="T11">
-        <v>5.126851062261847E-05</v>
+        <v>0.005833064455303278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H12">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I12">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J12">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.727270999999999</v>
+        <v>0.021228</v>
       </c>
       <c r="N12">
-        <v>23.181813</v>
+        <v>0.063684</v>
       </c>
       <c r="O12">
-        <v>0.4492515923977304</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P12">
-        <v>0.4784711627054499</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q12">
-        <v>4.438525144222499</v>
+        <v>0.003956205752</v>
       </c>
       <c r="R12">
-        <v>26.631150865335</v>
+        <v>0.035605851768</v>
       </c>
       <c r="S12">
-        <v>0.01097852049188</v>
+        <v>1.899621136661081E-05</v>
       </c>
       <c r="T12">
-        <v>0.00785906457898607</v>
+        <v>1.967698658829555E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,75 +1204,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H13">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I13">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J13">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.292848333333334</v>
+        <v>0.771625</v>
       </c>
       <c r="N13">
-        <v>18.878545</v>
+        <v>1.54325</v>
       </c>
       <c r="O13">
-        <v>0.3658564756519352</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P13">
-        <v>0.3896519817642028</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q13">
-        <v>3.614596350545834</v>
+        <v>0.1438056935833333</v>
       </c>
       <c r="R13">
-        <v>21.687578103275</v>
+        <v>0.8628341615</v>
       </c>
       <c r="S13">
-        <v>0.008940564447628786</v>
+        <v>0.0006905008288939637</v>
       </c>
       <c r="T13">
-        <v>0.006400176910765979</v>
+        <v>0.0004768310651401781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,60 +1281,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5743975</v>
+        <v>0.6993955000000001</v>
       </c>
       <c r="H14">
-        <v>1.148795</v>
+        <v>1.398791</v>
       </c>
       <c r="I14">
-        <v>0.02443735465307048</v>
+        <v>0.04020623852035952</v>
       </c>
       <c r="J14">
-        <v>0.01642536727720028</v>
+        <v>0.02716827033263282</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.021228</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N14">
-        <v>0.063684</v>
+        <v>14.660201</v>
       </c>
       <c r="O14">
-        <v>0.001234163109255392</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P14">
-        <v>0.001314433755709007</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q14">
-        <v>0.01219331013</v>
+        <v>3.417759536165167</v>
       </c>
       <c r="R14">
-        <v>0.07315986078</v>
+        <v>20.506557216991</v>
       </c>
       <c r="S14">
-        <v>3.015968160061019E-05</v>
+        <v>0.01641079524653682</v>
       </c>
       <c r="T14">
-        <v>2.159005719907019E-05</v>
+        <v>0.01133261054840123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,60 +1343,60 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5743975</v>
+        <v>0.6993955000000001</v>
       </c>
       <c r="H15">
-        <v>1.148795</v>
+        <v>1.398791</v>
       </c>
       <c r="I15">
-        <v>0.02443735465307048</v>
+        <v>0.04020623852035952</v>
       </c>
       <c r="J15">
-        <v>0.01642536727720028</v>
+        <v>0.02716827033263282</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.151199</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N15">
-        <v>6.302398</v>
+        <v>18.878545</v>
       </c>
       <c r="O15">
-        <v>0.183205839255817</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P15">
-        <v>0.1300810984409417</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q15">
-        <v>1.8100408276025</v>
+        <v>4.401189806515833</v>
       </c>
       <c r="R15">
-        <v>7.24016331041</v>
+        <v>26.407138839095</v>
       </c>
       <c r="S15">
-        <v>0.004477066068407822</v>
+        <v>0.02113285735628941</v>
       </c>
       <c r="T15">
-        <v>0.002136629817714113</v>
+        <v>0.01459346963970461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5743975</v>
+        <v>0.6993955000000001</v>
       </c>
       <c r="H16">
-        <v>1.148795</v>
+        <v>1.398791</v>
       </c>
       <c r="I16">
-        <v>0.02443735465307048</v>
+        <v>0.04020623852035952</v>
       </c>
       <c r="J16">
-        <v>0.01642536727720028</v>
+        <v>0.02716827033263282</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1423,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.007773333333333333</v>
+        <v>0.021228</v>
       </c>
       <c r="N16">
-        <v>0.02332</v>
+        <v>0.063684</v>
       </c>
       <c r="O16">
-        <v>0.0004519295852621654</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P16">
-        <v>0.0004813233336965963</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q16">
-        <v>0.004464983233333333</v>
+        <v>0.014846767674</v>
       </c>
       <c r="R16">
-        <v>0.0267898994</v>
+        <v>0.08908060604400002</v>
       </c>
       <c r="S16">
-        <v>1.104396355326659E-05</v>
+        <v>7.128859177854729E-05</v>
       </c>
       <c r="T16">
-        <v>7.905912535053025E-06</v>
+        <v>4.922892736357323E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.398791</v>
+      </c>
+      <c r="I17">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J17">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.771625</v>
+      </c>
+      <c r="N17">
+        <v>1.54325</v>
+      </c>
+      <c r="O17">
+        <v>0.06445013065429045</v>
+      </c>
+      <c r="P17">
+        <v>0.04391009079921059</v>
+      </c>
+      <c r="Q17">
+        <v>0.5396710526875</v>
+      </c>
+      <c r="R17">
+        <v>2.15868421075</v>
+      </c>
+      <c r="S17">
+        <v>0.002591297325754736</v>
+      </c>
+      <c r="T17">
+        <v>0.001192961217163407</v>
       </c>
     </row>
   </sheetData>
